--- a/metrics/llama31-8b_A100/llama31_8b_LMDeploy_A100.xlsx
+++ b/metrics/llama31-8b_A100/llama31_8b_LMDeploy_A100.xlsx
@@ -456,24 +456,24 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>85.98078435354564</v>
+        <v>185.3454344409829</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07251279830932617</v>
+        <v>0.4604008197784424</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>455.2833043796408</v>
+        <v>402.0926273274111</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9538478183746337</v>
+        <v>1.706398010253906</v>
       </c>
     </row>
     <row r="4">
@@ -481,10 +481,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>912.08248625046</v>
+        <v>2025.552542925602</v>
       </c>
       <c r="C4" t="n">
-        <v>1.390822343826294</v>
+        <v>1.71858024597168</v>
       </c>
     </row>
     <row r="5">
@@ -492,10 +492,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>1153.047216080022</v>
+        <v>2021.19028157703</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1069466400146484</v>
+        <v>1.720625162124634</v>
       </c>
     </row>
     <row r="6">
@@ -503,10 +503,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>1369.060354210779</v>
+        <v>1922.876405440473</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08569376945495605</v>
+        <v>1.85062050819397</v>
       </c>
     </row>
     <row r="7">
@@ -514,10 +514,10 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>1662.680388293956</v>
+        <v>2389.772446337491</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07959144592285156</v>
+        <v>1.949370145797729</v>
       </c>
     </row>
     <row r="8">
@@ -525,21 +525,21 @@
         <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>1959.51703700093</v>
+        <v>2337.686040460986</v>
       </c>
       <c r="C8" t="n">
-        <v>1.766909055709839</v>
+        <v>1.953421831130981</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" t="n">
-        <v>2076.539050808305</v>
+        <v>2378.425029510309</v>
       </c>
       <c r="C9" t="n">
-        <v>3.517214231491089</v>
+        <v>2.174918413162231</v>
       </c>
     </row>
     <row r="10">
@@ -547,10 +547,10 @@
         <v>45</v>
       </c>
       <c r="B10" t="n">
-        <v>2195.784998585667</v>
+        <v>2525.54147706445</v>
       </c>
       <c r="C10" t="n">
-        <v>4.23760908126831</v>
+        <v>2.1870276927948</v>
       </c>
     </row>
     <row r="11">
@@ -558,10 +558,10 @@
         <v>50</v>
       </c>
       <c r="B11" t="n">
-        <v>2258.484156317487</v>
+        <v>2478.855307545644</v>
       </c>
       <c r="C11" t="n">
-        <v>2.433435134887695</v>
+        <v>0.7272796630859375</v>
       </c>
     </row>
     <row r="12">
@@ -569,10 +569,10 @@
         <v>55</v>
       </c>
       <c r="B12" t="n">
-        <v>2262.944422073087</v>
+        <v>2558.020392407678</v>
       </c>
       <c r="C12" t="n">
-        <v>2.903028898239136</v>
+        <v>0.5046148300170898</v>
       </c>
     </row>
     <row r="13">
@@ -580,10 +580,10 @@
         <v>60</v>
       </c>
       <c r="B13" t="n">
-        <v>2364.586875495494</v>
+        <v>2579.941803422587</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2793101596832275</v>
+        <v>2.546586513519287</v>
       </c>
     </row>
     <row r="14">
@@ -591,10 +591,10 @@
         <v>65</v>
       </c>
       <c r="B14" t="n">
-        <v>2428.10552083311</v>
+        <v>2553.552925043955</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8520471382141113</v>
+        <v>2.592738151550293</v>
       </c>
     </row>
     <row r="15">
@@ -602,10 +602,10 @@
         <v>70</v>
       </c>
       <c r="B15" t="n">
-        <v>2476.864379889929</v>
+        <v>2614.574794838816</v>
       </c>
       <c r="C15" t="n">
-        <v>7.31597822189331</v>
+        <v>2.634797334671021</v>
       </c>
     </row>
     <row r="16">
@@ -613,10 +613,10 @@
         <v>75</v>
       </c>
       <c r="B16" t="n">
-        <v>2522.589266244554</v>
+        <v>2641.739923610923</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4673315811157226</v>
+        <v>2.649983406066895</v>
       </c>
     </row>
     <row r="17">
@@ -624,10 +624,10 @@
         <v>80</v>
       </c>
       <c r="B17" t="n">
-        <v>2515.810816246989</v>
+        <v>2646.49554552356</v>
       </c>
       <c r="C17" t="n">
-        <v>2.342021398544312</v>
+        <v>2.93143630027771</v>
       </c>
     </row>
     <row r="18">
@@ -635,10 +635,10 @@
         <v>85</v>
       </c>
       <c r="B18" t="n">
-        <v>2588.434104635638</v>
+        <v>2630.757545682398</v>
       </c>
       <c r="C18" t="n">
-        <v>1.373612098693848</v>
+        <v>3.382870435714722</v>
       </c>
     </row>
     <row r="19">
@@ -646,10 +646,10 @@
         <v>90</v>
       </c>
       <c r="B19" t="n">
-        <v>2587.008554735832</v>
+        <v>2654.088147464523</v>
       </c>
       <c r="C19" t="n">
-        <v>0.08301871299743652</v>
+        <v>0.5552160739898682</v>
       </c>
     </row>
     <row r="20">
@@ -657,10 +657,10 @@
         <v>95</v>
       </c>
       <c r="B20" t="n">
-        <v>2655.54617474207</v>
+        <v>2663.65289719444</v>
       </c>
       <c r="C20" t="n">
-        <v>7.230923824310302</v>
+        <v>3.522871017456055</v>
       </c>
     </row>
     <row r="21">
@@ -668,21 +668,21 @@
         <v>100</v>
       </c>
       <c r="B21" t="n">
-        <v>2669.150981369156</v>
+        <v>2670.634831134078</v>
       </c>
       <c r="C21" t="n">
-        <v>7.237806253433227</v>
+        <v>3.707513093948364</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B22" t="n">
-        <v>2684.975808792509</v>
+        <v>2683.463430594554</v>
       </c>
       <c r="C22" t="n">
-        <v>0.09016554832458495</v>
+        <v>3.729591846466064</v>
       </c>
     </row>
     <row r="23">
@@ -690,10 +690,10 @@
         <v>110</v>
       </c>
       <c r="B23" t="n">
-        <v>2735.800021418063</v>
+        <v>2704.217745735113</v>
       </c>
       <c r="C23" t="n">
-        <v>7.354006462097168</v>
+        <v>3.755293846130371</v>
       </c>
     </row>
     <row r="24">
@@ -701,10 +701,10 @@
         <v>115</v>
       </c>
       <c r="B24" t="n">
-        <v>2731.217581336747</v>
+        <v>2707.105783110526</v>
       </c>
       <c r="C24" t="n">
-        <v>0.373753719329834</v>
+        <v>4.092868566513062</v>
       </c>
     </row>
     <row r="25">
@@ -712,10 +712,10 @@
         <v>120</v>
       </c>
       <c r="B25" t="n">
-        <v>2744.562242063864</v>
+        <v>2722.342752787908</v>
       </c>
       <c r="C25" t="n">
-        <v>0.723699026107788</v>
+        <v>4.114988088607788</v>
       </c>
     </row>
     <row r="26">
@@ -723,21 +723,21 @@
         <v>125</v>
       </c>
       <c r="B26" t="n">
-        <v>2765.645033057599</v>
+        <v>2748.306798285344</v>
       </c>
       <c r="C26" t="n">
-        <v>7.369594507217407</v>
+        <v>1.035221576690674</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B27" t="n">
-        <v>2772.777532441808</v>
+        <v>2737.347362468561</v>
       </c>
       <c r="C27" t="n">
-        <v>2.712904386520386</v>
+        <v>4.63297963142395</v>
       </c>
     </row>
     <row r="28">
@@ -745,10 +745,10 @@
         <v>135</v>
       </c>
       <c r="B28" t="n">
-        <v>2777.24700152626</v>
+        <v>2743.27870965584</v>
       </c>
       <c r="C28" t="n">
-        <v>7.442087106704712</v>
+        <v>4.69649338722229</v>
       </c>
     </row>
     <row r="29">
@@ -756,10 +756,10 @@
         <v>140</v>
       </c>
       <c r="B29" t="n">
-        <v>2804.783451532439</v>
+        <v>2748.021107985799</v>
       </c>
       <c r="C29" t="n">
-        <v>7.506671838760376</v>
+        <v>5.00990104675293</v>
       </c>
     </row>
     <row r="30">
@@ -767,10 +767,10 @@
         <v>145</v>
       </c>
       <c r="B30" t="n">
-        <v>2809.260981410199</v>
+        <v>2763.722821612665</v>
       </c>
       <c r="C30" t="n">
-        <v>4.629371814727783</v>
+        <v>1.928606033325195</v>
       </c>
     </row>
     <row r="31">
@@ -778,10 +778,10 @@
         <v>150</v>
       </c>
       <c r="B31" t="n">
-        <v>2832.552430068974</v>
+        <v>2768.991327368508</v>
       </c>
       <c r="C31" t="n">
-        <v>1.090136938095093</v>
+        <v>5.497463226318359</v>
       </c>
     </row>
     <row r="32">
@@ -789,21 +789,21 @@
         <v>155</v>
       </c>
       <c r="B32" t="n">
-        <v>2853.399760070847</v>
+        <v>2751.192587519599</v>
       </c>
       <c r="C32" t="n">
-        <v>0.935345344543457</v>
+        <v>5.892077445983887</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B33" t="n">
-        <v>2853.435209494593</v>
+        <v>2760.42397854827</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8260013389587402</v>
+        <v>5.884020328521729</v>
       </c>
     </row>
     <row r="34">
@@ -811,10 +811,10 @@
         <v>165</v>
       </c>
       <c r="B34" t="n">
-        <v>2876.586649205034</v>
+        <v>2763.693510140292</v>
       </c>
       <c r="C34" t="n">
-        <v>7.618812255859375</v>
+        <v>2.616990804672241</v>
       </c>
     </row>
     <row r="35">
@@ -822,10 +822,10 @@
         <v>170</v>
       </c>
       <c r="B35" t="n">
-        <v>2869.001892245723</v>
+        <v>2780.049679057853</v>
       </c>
       <c r="C35" t="n">
-        <v>7.024626665115356</v>
+        <v>6.488626003265381</v>
       </c>
     </row>
     <row r="36">
@@ -833,10 +833,10 @@
         <v>175</v>
       </c>
       <c r="B36" t="n">
-        <v>2891.117828304923</v>
+        <v>2783.069664606538</v>
       </c>
       <c r="C36" t="n">
-        <v>7.612019710540771</v>
+        <v>7.022128105163574</v>
       </c>
     </row>
     <row r="37">
@@ -844,10 +844,10 @@
         <v>180</v>
       </c>
       <c r="B37" t="n">
-        <v>2887.207770520283</v>
+        <v>2778.368156258721</v>
       </c>
       <c r="C37" t="n">
-        <v>7.735992364883423</v>
+        <v>7.224808692932129</v>
       </c>
     </row>
     <row r="38">
@@ -855,10 +855,10 @@
         <v>185</v>
       </c>
       <c r="B38" t="n">
-        <v>2908.289568481268</v>
+        <v>2775.522653027653</v>
       </c>
       <c r="C38" t="n">
-        <v>6.874609880447387</v>
+        <v>7.268004655838013</v>
       </c>
     </row>
     <row r="39">
@@ -866,10 +866,10 @@
         <v>190</v>
       </c>
       <c r="B39" t="n">
-        <v>2920.516933062451</v>
+        <v>2792.690781281629</v>
       </c>
       <c r="C39" t="n">
-        <v>1.605573348999023</v>
+        <v>7.601056337356567</v>
       </c>
     </row>
     <row r="40">
@@ -877,10 +877,10 @@
         <v>195</v>
       </c>
       <c r="B40" t="n">
-        <v>2932.842138712403</v>
+        <v>2792.414872726406</v>
       </c>
       <c r="C40" t="n">
-        <v>7.828180484771728</v>
+        <v>0.4315512180328369</v>
       </c>
     </row>
     <row r="41">
@@ -888,10 +888,10 @@
         <v>200</v>
       </c>
       <c r="B41" t="n">
-        <v>2936.894714298131</v>
+        <v>2799.005967466832</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1165644454956055</v>
+        <v>0.3899855613708496</v>
       </c>
     </row>
     <row r="42">
@@ -899,10 +899,10 @@
         <v>205</v>
       </c>
       <c r="B42" t="n">
-        <v>2930.591810706775</v>
+        <v>2802.379147607685</v>
       </c>
       <c r="C42" t="n">
-        <v>0.06919949531555175</v>
+        <v>5.263772487640381</v>
       </c>
     </row>
     <row r="43">
@@ -910,10 +910,10 @@
         <v>210</v>
       </c>
       <c r="B43" t="n">
-        <v>2943.464474612574</v>
+        <v>2805.848354186951</v>
       </c>
       <c r="C43" t="n">
-        <v>7.942593746185302</v>
+        <v>7.971038103103638</v>
       </c>
     </row>
     <row r="44">
@@ -921,21 +921,21 @@
         <v>215</v>
       </c>
       <c r="B44" t="n">
-        <v>2951.010231531279</v>
+        <v>2808.935471871656</v>
       </c>
       <c r="C44" t="n">
-        <v>8.015820913314819</v>
+        <v>8.057204246520996</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B45" t="n">
-        <v>2949.843753537152</v>
+        <v>2806.476462049252</v>
       </c>
       <c r="C45" t="n">
-        <v>2.04093282699585</v>
+        <v>8.272906064987183</v>
       </c>
     </row>
     <row r="46">
@@ -943,10 +943,10 @@
         <v>225</v>
       </c>
       <c r="B46" t="n">
-        <v>2960.305072130734</v>
+        <v>2810.639523336696</v>
       </c>
       <c r="C46" t="n">
-        <v>1.24074070930481</v>
+        <v>8.427997589111328</v>
       </c>
     </row>
     <row r="47">
@@ -954,10 +954,10 @@
         <v>230</v>
       </c>
       <c r="B47" t="n">
-        <v>2959.731811221427</v>
+        <v>2812.496996267825</v>
       </c>
       <c r="C47" t="n">
-        <v>8.057621173858642</v>
+        <v>0.8180263042449951</v>
       </c>
     </row>
     <row r="48">
@@ -965,10 +965,10 @@
         <v>235</v>
       </c>
       <c r="B48" t="n">
-        <v>2960.850399055324</v>
+        <v>2819.139876592949</v>
       </c>
       <c r="C48" t="n">
-        <v>0.02763526916503906</v>
+        <v>8.989316463470459</v>
       </c>
     </row>
     <row r="49">
@@ -976,10 +976,10 @@
         <v>240</v>
       </c>
       <c r="B49" t="n">
-        <v>2963.97080377242</v>
+        <v>2817.004029351285</v>
       </c>
       <c r="C49" t="n">
-        <v>8.096176557540893</v>
+        <v>1.474994659423828</v>
       </c>
     </row>
     <row r="50">
@@ -987,10 +987,10 @@
         <v>245</v>
       </c>
       <c r="B50" t="n">
-        <v>2960.680962529081</v>
+        <v>2818.540181736579</v>
       </c>
       <c r="C50" t="n">
-        <v>1.607990913391113</v>
+        <v>9.687848329544067</v>
       </c>
     </row>
     <row r="51">
@@ -998,10 +998,10 @@
         <v>250</v>
       </c>
       <c r="B51" t="n">
-        <v>2973.026677684253</v>
+        <v>2825.817407387534</v>
       </c>
       <c r="C51" t="n">
-        <v>8.140998058319092</v>
+        <v>9.927264451980591</v>
       </c>
     </row>
     <row r="52">
@@ -1009,10 +1009,10 @@
         <v>255</v>
       </c>
       <c r="B52" t="n">
-        <v>2973.711955010362</v>
+        <v>2821.51115218187</v>
       </c>
       <c r="C52" t="n">
-        <v>8.259206943511963</v>
+        <v>2.39513635635376</v>
       </c>
     </row>
     <row r="53">
@@ -1020,21 +1020,21 @@
         <v>260</v>
       </c>
       <c r="B53" t="n">
-        <v>2970.383948175706</v>
+        <v>2823.707922320905</v>
       </c>
       <c r="C53" t="n">
-        <v>2.75035493850708</v>
+        <v>10.2176353931427</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B54" t="n">
-        <v>2971.451270429234</v>
+        <v>2824.026207897199</v>
       </c>
       <c r="C54" t="n">
-        <v>8.346515588760376</v>
+        <v>10.65654349327087</v>
       </c>
     </row>
     <row r="55">
@@ -1042,10 +1042,10 @@
         <v>270</v>
       </c>
       <c r="B55" t="n">
-        <v>2979.637152884085</v>
+        <v>2825.04256018057</v>
       </c>
       <c r="C55" t="n">
-        <v>8.348124198913574</v>
+        <v>4.363253831863403</v>
       </c>
     </row>
     <row r="56">
@@ -1053,10 +1053,10 @@
         <v>275</v>
       </c>
       <c r="B56" t="n">
-        <v>2981.923754391933</v>
+        <v>2828.054784061761</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4039882946014404</v>
+        <v>11.45595932006836</v>
       </c>
     </row>
     <row r="57">
@@ -1064,10 +1064,10 @@
         <v>280</v>
       </c>
       <c r="B57" t="n">
-        <v>2984.821723348111</v>
+        <v>2831.191585259742</v>
       </c>
       <c r="C57" t="n">
-        <v>8.304902725219726</v>
+        <v>11.45791554450989</v>
       </c>
     </row>
     <row r="58">
@@ -1075,21 +1075,21 @@
         <v>285</v>
       </c>
       <c r="B58" t="n">
-        <v>2987.743420750467</v>
+        <v>2829.183640314318</v>
       </c>
       <c r="C58" t="n">
-        <v>3.238450698852539</v>
+        <v>11.48295402526855</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B59" t="n">
-        <v>2987.997737436908</v>
+        <v>2839.465647968816</v>
       </c>
       <c r="C59" t="n">
-        <v>8.466596775054931</v>
+        <v>11.51315307617188</v>
       </c>
     </row>
     <row r="60">
@@ -1097,10 +1097,10 @@
         <v>295</v>
       </c>
       <c r="B60" t="n">
-        <v>2987.962609914975</v>
+        <v>2835.193006588007</v>
       </c>
       <c r="C60" t="n">
-        <v>8.415618829727173</v>
+        <v>2.867098808288574</v>
       </c>
     </row>
     <row r="61">
@@ -1108,10 +1108,10 @@
         <v>300</v>
       </c>
       <c r="B61" t="n">
-        <v>3005.24466856062</v>
+        <v>2837.410173405926</v>
       </c>
       <c r="C61" t="n">
-        <v>0.8742222118377685</v>
+        <v>6.01057505607605</v>
       </c>
     </row>
   </sheetData>
@@ -1155,10 +1155,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>38.33507455929769</v>
+        <v>142.6918151921484</v>
       </c>
       <c r="C2" t="n">
-        <v>1.227189712524414</v>
+        <v>1.31215238571167</v>
       </c>
     </row>
     <row r="3">
@@ -1166,10 +1166,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>251.3413763206</v>
+        <v>253.5106824798222</v>
       </c>
       <c r="C3" t="n">
-        <v>1.60884349822998</v>
+        <v>1.307269096374512</v>
       </c>
     </row>
     <row r="4">
@@ -1177,10 +1177,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>467.663432663887</v>
+        <v>1217.573100903985</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9159378337860107</v>
+        <v>1.892398118972778</v>
       </c>
     </row>
     <row r="5">
@@ -1188,10 +1188,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>738.8785427273962</v>
+        <v>1139.52365745308</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.07481796264648438</v>
+        <v>2.038030862808228</v>
       </c>
     </row>
     <row r="6">
@@ -1199,10 +1199,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>980.0454543929242</v>
+        <v>1414.404980439366</v>
       </c>
       <c r="C6" t="n">
-        <v>2.675147705078125</v>
+        <v>2.191478967666626</v>
       </c>
     </row>
     <row r="7">
@@ -1210,10 +1210,10 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>1185.811445175676</v>
+        <v>1393.862578749593</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1893485260009766</v>
+        <v>2.240495204925537</v>
       </c>
     </row>
     <row r="8">
@@ -1221,10 +1221,10 @@
         <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>1251.362477532664</v>
+        <v>1516.695479620118</v>
       </c>
       <c r="C8" t="n">
-        <v>4.134296112060547</v>
+        <v>0.4810380935668945</v>
       </c>
     </row>
     <row r="9">
@@ -1232,10 +1232,10 @@
         <v>40</v>
       </c>
       <c r="B9" t="n">
-        <v>1419.017593468822</v>
+        <v>1558.431119663911</v>
       </c>
       <c r="C9" t="n">
-        <v>2.109585933685303</v>
+        <v>2.590787172317505</v>
       </c>
     </row>
     <row r="10">
@@ -1243,10 +1243,10 @@
         <v>45</v>
       </c>
       <c r="B10" t="n">
-        <v>1456.500447872664</v>
+        <v>1599.740464981192</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8751353549957275</v>
+        <v>2.783042192459106</v>
       </c>
     </row>
     <row r="11">
@@ -1254,10 +1254,10 @@
         <v>50</v>
       </c>
       <c r="B11" t="n">
-        <v>1544.070489125408</v>
+        <v>1579.318186503926</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1611738872528076</v>
+        <v>0.4780817031860352</v>
       </c>
     </row>
     <row r="12">
@@ -1265,10 +1265,10 @@
         <v>55</v>
       </c>
       <c r="B12" t="n">
-        <v>1600.833526671464</v>
+        <v>1621.55388766805</v>
       </c>
       <c r="C12" t="n">
-        <v>7.261557512283325</v>
+        <v>3.165812969207764</v>
       </c>
     </row>
     <row r="13">
@@ -1276,10 +1276,10 @@
         <v>60</v>
       </c>
       <c r="B13" t="n">
-        <v>1628.081922469937</v>
+        <v>1634.932206631445</v>
       </c>
       <c r="C13" t="n">
-        <v>5.339535646438598</v>
+        <v>3.216638326644897</v>
       </c>
     </row>
     <row r="14">
@@ -1287,10 +1287,10 @@
         <v>65</v>
       </c>
       <c r="B14" t="n">
-        <v>1701.848148668339</v>
+        <v>1660.18832553423</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9602574634552001</v>
+        <v>3.358872175216675</v>
       </c>
     </row>
     <row r="15">
@@ -1298,10 +1298,10 @@
         <v>70</v>
       </c>
       <c r="B15" t="n">
-        <v>1705.753177638863</v>
+        <v>1666.243154029962</v>
       </c>
       <c r="C15" t="n">
-        <v>3.82542031288147</v>
+        <v>3.728117704391479</v>
       </c>
     </row>
     <row r="16">
@@ -1309,10 +1309,10 @@
         <v>75</v>
       </c>
       <c r="B16" t="n">
-        <v>1787.822698181523</v>
+        <v>1667.453574814918</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0600363540649414</v>
+        <v>4.450270175933838</v>
       </c>
     </row>
     <row r="17">
@@ -1320,10 +1320,10 @@
         <v>80</v>
       </c>
       <c r="B17" t="n">
-        <v>1788.617129904231</v>
+        <v>1700.932444141186</v>
       </c>
       <c r="C17" t="n">
-        <v>7.327624492645263</v>
+        <v>4.531340599060059</v>
       </c>
     </row>
     <row r="18">
@@ -1331,10 +1331,10 @@
         <v>85</v>
       </c>
       <c r="B18" t="n">
-        <v>1819.184934978548</v>
+        <v>1688.515974651562</v>
       </c>
       <c r="C18" t="n">
-        <v>7.309880905151367</v>
+        <v>2.543879985809326</v>
       </c>
     </row>
     <row r="19">
@@ -1342,10 +1342,10 @@
         <v>90</v>
       </c>
       <c r="B19" t="n">
-        <v>1848.835794489146</v>
+        <v>1708.627118436515</v>
       </c>
       <c r="C19" t="n">
-        <v>6.127020053863525</v>
+        <v>5.281445264816284</v>
       </c>
     </row>
     <row r="20">
@@ -1353,10 +1353,10 @@
         <v>95</v>
       </c>
       <c r="B20" t="n">
-        <v>1842.47633583646</v>
+        <v>1715.695869131725</v>
       </c>
       <c r="C20" t="n">
-        <v>7.242506914138794</v>
+        <v>5.53919506072998</v>
       </c>
     </row>
     <row r="21">
@@ -1364,10 +1364,10 @@
         <v>100</v>
       </c>
       <c r="B21" t="n">
-        <v>1872.664844376015</v>
+        <v>1725.153641578092</v>
       </c>
       <c r="C21" t="n">
-        <v>2.006781988143921</v>
+        <v>5.657748460769653</v>
       </c>
     </row>
     <row r="22">
@@ -1375,10 +1375,10 @@
         <v>105</v>
       </c>
       <c r="B22" t="n">
-        <v>1871.583513435487</v>
+        <v>1731.377242096228</v>
       </c>
       <c r="C22" t="n">
-        <v>0.61650484085083</v>
+        <v>2.286581516265869</v>
       </c>
     </row>
     <row r="23">
@@ -1386,10 +1386,10 @@
         <v>110</v>
       </c>
       <c r="B23" t="n">
-        <v>1901.683548244769</v>
+        <v>1736.274590674492</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.05049926757812501</v>
+        <v>7.641854286193848</v>
       </c>
     </row>
     <row r="24">
@@ -1397,10 +1397,10 @@
         <v>115</v>
       </c>
       <c r="B24" t="n">
-        <v>1896.321852152809</v>
+        <v>1740.655186017626</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.0867524814605713</v>
+        <v>7.391979217529297</v>
       </c>
     </row>
     <row r="25">
@@ -1408,10 +1408,10 @@
         <v>120</v>
       </c>
       <c r="B25" t="n">
-        <v>1912.232365085854</v>
+        <v>1738.441866323382</v>
       </c>
       <c r="C25" t="n">
-        <v>7.235992603302002</v>
+        <v>3.334096431732178</v>
       </c>
     </row>
     <row r="26">
@@ -1419,10 +1419,10 @@
         <v>125</v>
       </c>
       <c r="B26" t="n">
-        <v>1908.666265774396</v>
+        <v>1753.942791192859</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.02880103111267091</v>
+        <v>6.71764612197876</v>
       </c>
     </row>
     <row r="27">
@@ -1430,10 +1430,10 @@
         <v>130</v>
       </c>
       <c r="B27" t="n">
-        <v>1922.546805789206</v>
+        <v>1743.004581878877</v>
       </c>
       <c r="C27" t="n">
-        <v>7.318653516769409</v>
+        <v>7.156070470809937</v>
       </c>
     </row>
     <row r="28">
@@ -1441,10 +1441,10 @@
         <v>135</v>
       </c>
       <c r="B28" t="n">
-        <v>1931.104644103376</v>
+        <v>1760.876351764458</v>
       </c>
       <c r="C28" t="n">
-        <v>3.214986019134522</v>
+        <v>9.782122611999512</v>
       </c>
     </row>
     <row r="29">
@@ -1452,10 +1452,10 @@
         <v>140</v>
       </c>
       <c r="B29" t="n">
-        <v>1934.641375956657</v>
+        <v>1739.789291945511</v>
       </c>
       <c r="C29" t="n">
-        <v>7.4608518409729</v>
+        <v>10.07012319564819</v>
       </c>
     </row>
     <row r="30">
@@ -1463,10 +1463,10 @@
         <v>145</v>
       </c>
       <c r="B30" t="n">
-        <v>1937.105132343944</v>
+        <v>1754.266102179368</v>
       </c>
       <c r="C30" t="n">
-        <v>2.259861640930176</v>
+        <v>10.90816879272461</v>
       </c>
     </row>
     <row r="31">
@@ -1474,10 +1474,10 @@
         <v>150</v>
       </c>
       <c r="B31" t="n">
-        <v>1956.026557952472</v>
+        <v>1748.163308355601</v>
       </c>
       <c r="C31" t="n">
-        <v>4.325215511322021</v>
+        <v>11.16371965408325</v>
       </c>
     </row>
     <row r="32">
@@ -1485,10 +1485,10 @@
         <v>155</v>
       </c>
       <c r="B32" t="n">
-        <v>1955.926479991423</v>
+        <v>1755.858256553825</v>
       </c>
       <c r="C32" t="n">
-        <v>7.679725103378296</v>
+        <v>0.2973968982696533</v>
       </c>
     </row>
     <row r="33">
@@ -1496,10 +1496,10 @@
         <v>160</v>
       </c>
       <c r="B33" t="n">
-        <v>1963.260721422359</v>
+        <v>1761.784869887445</v>
       </c>
       <c r="C33" t="n">
-        <v>7.35330527305603</v>
+        <v>11.98939871788025</v>
       </c>
     </row>
     <row r="34">
@@ -1507,10 +1507,10 @@
         <v>165</v>
       </c>
       <c r="B34" t="n">
-        <v>1970.669672848616</v>
+        <v>1762.54781281547</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.1161246967315674</v>
+        <v>12.01564192771912</v>
       </c>
     </row>
     <row r="35">
@@ -1518,10 +1518,10 @@
         <v>170</v>
       </c>
       <c r="B35" t="n">
-        <v>1968.755764245205</v>
+        <v>1766.65152549839</v>
       </c>
       <c r="C35" t="n">
-        <v>7.702072553634643</v>
+        <v>12.02653741836548</v>
       </c>
     </row>
     <row r="36">
@@ -1529,10 +1529,10 @@
         <v>175</v>
       </c>
       <c r="B36" t="n">
-        <v>1966.476271323611</v>
+        <v>1765.762007204368</v>
       </c>
       <c r="C36" t="n">
-        <v>7.778519802093506</v>
+        <v>12.03670501708984</v>
       </c>
     </row>
     <row r="37">
@@ -1540,10 +1540,10 @@
         <v>180</v>
       </c>
       <c r="B37" t="n">
-        <v>1978.718696455883</v>
+        <v>1771.262106100965</v>
       </c>
       <c r="C37" t="n">
-        <v>7.89820855140686</v>
+        <v>12.02853512763977</v>
       </c>
     </row>
     <row r="38">
@@ -1551,10 +1551,10 @@
         <v>185</v>
       </c>
       <c r="B38" t="n">
-        <v>1978.72647384156</v>
+        <v>1767.205968350635</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.08070189476013184</v>
+        <v>12.14930057525635</v>
       </c>
     </row>
     <row r="39">
@@ -1562,10 +1562,10 @@
         <v>190</v>
       </c>
       <c r="B39" t="n">
-        <v>1981.577011943875</v>
+        <v>1769.336556561293</v>
       </c>
       <c r="C39" t="n">
-        <v>8.009636573791504</v>
+        <v>12.3101851940155</v>
       </c>
     </row>
     <row r="40">
@@ -1573,10 +1573,10 @@
         <v>195</v>
       </c>
       <c r="B40" t="n">
-        <v>1983.574260682241</v>
+        <v>1774.177825891471</v>
       </c>
       <c r="C40" t="n">
-        <v>3.913859062194824</v>
+        <v>12.32577109336853</v>
       </c>
     </row>
     <row r="41">
@@ -1584,10 +1584,10 @@
         <v>200</v>
       </c>
       <c r="B41" t="n">
-        <v>1987.653093616785</v>
+        <v>1784.975109517307</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9620234298706054</v>
+        <v>12.32795262336731</v>
       </c>
     </row>
     <row r="42">
@@ -1595,10 +1595,10 @@
         <v>205</v>
       </c>
       <c r="B42" t="n">
-        <v>1994.955553520746</v>
+        <v>1783.811298003951</v>
       </c>
       <c r="C42" t="n">
-        <v>8.013894729614258</v>
+        <v>12.33294010162354</v>
       </c>
     </row>
     <row r="43">
@@ -1606,10 +1606,10 @@
         <v>210</v>
       </c>
       <c r="B43" t="n">
-        <v>1986.938021032652</v>
+        <v>1787.034603881497</v>
       </c>
       <c r="C43" t="n">
-        <v>2.204156093597412</v>
+        <v>12.35231232643127</v>
       </c>
     </row>
     <row r="44">
@@ -1617,10 +1617,10 @@
         <v>215</v>
       </c>
       <c r="B44" t="n">
-        <v>1997.890833915792</v>
+        <v>1782.521635346505</v>
       </c>
       <c r="C44" t="n">
-        <v>7.923152856826782</v>
+        <v>12.37427711486816</v>
       </c>
     </row>
     <row r="45">
@@ -1628,10 +1628,10 @@
         <v>220</v>
       </c>
       <c r="B45" t="n">
-        <v>1996.176036689512</v>
+        <v>1793.414505221234</v>
       </c>
       <c r="C45" t="n">
-        <v>6.408087902069092</v>
+        <v>12.37930703163147</v>
       </c>
     </row>
     <row r="46">
@@ -1639,10 +1639,10 @@
         <v>225</v>
       </c>
       <c r="B46" t="n">
-        <v>2003.248300419421</v>
+        <v>1792.713529532716</v>
       </c>
       <c r="C46" t="n">
-        <v>0.2747885513305664</v>
+        <v>12.35912227630615</v>
       </c>
     </row>
     <row r="47">
@@ -1650,10 +1650,10 @@
         <v>230</v>
       </c>
       <c r="B47" t="n">
-        <v>2003.476668667985</v>
+        <v>1786.597785881951</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4716064262390137</v>
+        <v>12.37412309646606</v>
       </c>
     </row>
     <row r="48">
@@ -1661,10 +1661,10 @@
         <v>235</v>
       </c>
       <c r="B48" t="n">
-        <v>2008.090587058251</v>
+        <v>1792.217869630763</v>
       </c>
       <c r="C48" t="n">
-        <v>7.872015171051025</v>
+        <v>12.37312269210815</v>
       </c>
     </row>
     <row r="49">
@@ -1672,10 +1672,10 @@
         <v>240</v>
       </c>
       <c r="B49" t="n">
-        <v>2013.249477577566</v>
+        <v>1794.302092284161</v>
       </c>
       <c r="C49" t="n">
-        <v>7.819612197875976</v>
+        <v>12.39115214347839</v>
       </c>
     </row>
     <row r="50">
@@ -1683,10 +1683,10 @@
         <v>245</v>
       </c>
       <c r="B50" t="n">
-        <v>2017.523229965615</v>
+        <v>1796.320089251763</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8428003120422363</v>
+        <v>12.4003324508667</v>
       </c>
     </row>
     <row r="51">
@@ -1694,10 +1694,10 @@
         <v>250</v>
       </c>
       <c r="B51" t="n">
-        <v>2015.75800436242</v>
+        <v>1792.306197424987</v>
       </c>
       <c r="C51" t="n">
-        <v>7.838750534057617</v>
+        <v>12.38115453720093</v>
       </c>
     </row>
     <row r="52">
@@ -1705,10 +1705,10 @@
         <v>255</v>
       </c>
       <c r="B52" t="n">
-        <v>2022.864409509563</v>
+        <v>1794.83696205927</v>
       </c>
       <c r="C52" t="n">
-        <v>7.09759443283081</v>
+        <v>12.39615106582642</v>
       </c>
     </row>
     <row r="53">
@@ -1716,10 +1716,10 @@
         <v>260</v>
       </c>
       <c r="B53" t="n">
-        <v>2019.849110921188</v>
+        <v>1791.209697279409</v>
       </c>
       <c r="C53" t="n">
-        <v>7.897783689498901</v>
+        <v>12.39115405082703</v>
       </c>
     </row>
     <row r="54">
@@ -1727,10 +1727,10 @@
         <v>265</v>
       </c>
       <c r="B54" t="n">
-        <v>2021.422984859663</v>
+        <v>1793.673044484456</v>
       </c>
       <c r="C54" t="n">
-        <v>7.841584377288818</v>
+        <v>12.4063127040863</v>
       </c>
     </row>
     <row r="55">
@@ -1738,10 +1738,10 @@
         <v>270</v>
       </c>
       <c r="B55" t="n">
-        <v>2031.155880939752</v>
+        <v>1792.584743414339</v>
       </c>
       <c r="C55" t="n">
-        <v>7.857210092544555</v>
+        <v>12.39031720161438</v>
       </c>
     </row>
     <row r="56">
@@ -1749,10 +1749,10 @@
         <v>275</v>
       </c>
       <c r="B56" t="n">
-        <v>2021.200747173998</v>
+        <v>1799.043296224702</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.137779541015625</v>
+        <v>12.39031100273132</v>
       </c>
     </row>
     <row r="57">
@@ -1760,10 +1760,10 @@
         <v>280</v>
       </c>
       <c r="B57" t="n">
-        <v>2035.648962495288</v>
+        <v>1798.142449777111</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.1518850994110107</v>
+        <v>12.40530943870544</v>
       </c>
     </row>
     <row r="58">
@@ -1771,10 +1771,10 @@
         <v>285</v>
       </c>
       <c r="B58" t="n">
-        <v>2032.794862429467</v>
+        <v>1798.982380360221</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9502598571777343</v>
+        <v>12.4033100605011</v>
       </c>
     </row>
     <row r="59">
@@ -1782,10 +1782,10 @@
         <v>290</v>
       </c>
       <c r="B59" t="n">
-        <v>2038.123000365035</v>
+        <v>1805.087849309737</v>
       </c>
       <c r="C59" t="n">
-        <v>1.343884878158569</v>
+        <v>12.39731216430664</v>
       </c>
     </row>
     <row r="60">
@@ -1793,10 +1793,10 @@
         <v>295</v>
       </c>
       <c r="B60" t="n">
-        <v>2035.622765127433</v>
+        <v>1801.664256928094</v>
       </c>
       <c r="C60" t="n">
-        <v>8.083408288955688</v>
+        <v>12.39631128311157</v>
       </c>
     </row>
     <row r="61">
@@ -1804,10 +1804,10 @@
         <v>300</v>
       </c>
       <c r="B61" t="n">
-        <v>2045.191735138641</v>
+        <v>1803.558173578484</v>
       </c>
       <c r="C61" t="n">
-        <v>8.083408288955688</v>
+        <v>0.4049258232116699</v>
       </c>
     </row>
   </sheetData>
@@ -1848,13 +1848,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>21.20908374739738</v>
       </c>
       <c r="C2" t="n">
-        <v>6.574724941253662</v>
+        <v>0.672205924987793</v>
       </c>
     </row>
     <row r="3">
@@ -1862,10 +1862,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>52.55943793186149</v>
+        <v>359.7748256199295</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1116545486450196</v>
+        <v>0.2483770847320557</v>
       </c>
     </row>
     <row r="4">
@@ -1873,10 +1873,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>160.3416777220741</v>
+        <v>338.5267022701807</v>
       </c>
       <c r="C4" t="n">
-        <v>6.283633975982666</v>
+        <v>2.426206827163696</v>
       </c>
     </row>
     <row r="5">
@@ -1884,10 +1884,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>231.7485678953047</v>
+        <v>437.5901149984152</v>
       </c>
       <c r="C5" t="n">
-        <v>6.278759746551514</v>
+        <v>5.993926763534546</v>
       </c>
     </row>
     <row r="6">
@@ -1895,10 +1895,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>292.9304134504478</v>
+        <v>409.0112636944713</v>
       </c>
       <c r="C6" t="n">
-        <v>6.345933465957642</v>
+        <v>7.937031030654907</v>
       </c>
     </row>
     <row r="7">
@@ -1906,10 +1906,10 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>353.7234492384346</v>
+        <v>474.0938996585523</v>
       </c>
       <c r="C7" t="n">
-        <v>2.485163717269898</v>
+        <v>8.673175096511841</v>
       </c>
     </row>
     <row r="8">
@@ -1917,10 +1917,10 @@
         <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>380.4423457781278</v>
+        <v>476.5966019181251</v>
       </c>
       <c r="C8" t="n">
-        <v>6.296486883163452</v>
+        <v>8.681180238723755</v>
       </c>
     </row>
     <row r="9">
@@ -1928,10 +1928,10 @@
         <v>40</v>
       </c>
       <c r="B9" t="n">
-        <v>388.2001835729492</v>
+        <v>468.9049473323263</v>
       </c>
       <c r="C9" t="n">
-        <v>6.390746145248413</v>
+        <v>8.712330102920532</v>
       </c>
     </row>
     <row r="10">
@@ -1939,10 +1939,10 @@
         <v>45</v>
       </c>
       <c r="B10" t="n">
-        <v>407.7858591000555</v>
+        <v>483.0817815591351</v>
       </c>
       <c r="C10" t="n">
-        <v>6.314171342849732</v>
+        <v>8.772852420806885</v>
       </c>
     </row>
     <row r="11">
@@ -1950,10 +1950,10 @@
         <v>50</v>
       </c>
       <c r="B11" t="n">
-        <v>441.1843445801128</v>
+        <v>483.0793264547587</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6499667453765869</v>
+        <v>8.771852493286133</v>
       </c>
     </row>
     <row r="12">
@@ -1961,10 +1961,10 @@
         <v>55</v>
       </c>
       <c r="B12" t="n">
-        <v>453.1271665130818</v>
+        <v>498.2158100000346</v>
       </c>
       <c r="C12" t="n">
-        <v>6.418711452484131</v>
+        <v>8.772851705551147</v>
       </c>
     </row>
     <row r="13">
@@ -1972,10 +1972,10 @@
         <v>60</v>
       </c>
       <c r="B13" t="n">
-        <v>460.0321611860555</v>
+        <v>485.4650777967807</v>
       </c>
       <c r="C13" t="n">
-        <v>3.211962728500366</v>
+        <v>8.395946025848389</v>
       </c>
     </row>
     <row r="14">
@@ -1983,10 +1983,10 @@
         <v>65</v>
       </c>
       <c r="B14" t="n">
-        <v>458.2329706468025</v>
+        <v>495.3875148939717</v>
       </c>
       <c r="C14" t="n">
-        <v>6.430051832199097</v>
+        <v>7.953327417373657</v>
       </c>
     </row>
     <row r="15">
@@ -1994,10 +1994,10 @@
         <v>70</v>
       </c>
       <c r="B15" t="n">
-        <v>466.9163079484833</v>
+        <v>503.1481830958805</v>
       </c>
       <c r="C15" t="n">
-        <v>6.362578659057617</v>
+        <v>1.946805477142334</v>
       </c>
     </row>
     <row r="16">
@@ -2005,10 +2005,10 @@
         <v>75</v>
       </c>
       <c r="B16" t="n">
-        <v>471.9975181477005</v>
+        <v>485.8628830469638</v>
       </c>
       <c r="C16" t="n">
-        <v>5.539576559066773</v>
+        <v>0.09892797470092773</v>
       </c>
     </row>
     <row r="17">
@@ -2016,10 +2016,10 @@
         <v>80</v>
       </c>
       <c r="B17" t="n">
-        <v>470.070855503304</v>
+        <v>491.8373227947409</v>
       </c>
       <c r="C17" t="n">
-        <v>6.507418899536133</v>
+        <v>2.195352077484131</v>
       </c>
     </row>
     <row r="18">
@@ -2027,10 +2027,10 @@
         <v>85</v>
       </c>
       <c r="B18" t="n">
-        <v>481.5198753648158</v>
+        <v>500.8625901963559</v>
       </c>
       <c r="C18" t="n">
-        <v>6.395076780319214</v>
+        <v>5.071532011032104</v>
       </c>
     </row>
     <row r="19">
@@ -2038,10 +2038,10 @@
         <v>90</v>
       </c>
       <c r="B19" t="n">
-        <v>477.6517303546278</v>
+        <v>490.2284050153754</v>
       </c>
       <c r="C19" t="n">
-        <v>6.4092724609375</v>
+        <v>1.008792877197266</v>
       </c>
     </row>
     <row r="20">
@@ -2049,10 +2049,10 @@
         <v>95</v>
       </c>
       <c r="B20" t="n">
-        <v>479.5621318280121</v>
+        <v>504.0162457272825</v>
       </c>
       <c r="C20" t="n">
-        <v>6.502956895828247</v>
+        <v>3.850789546966553</v>
       </c>
     </row>
     <row r="21">
@@ -2060,10 +2060,10 @@
         <v>100</v>
       </c>
       <c r="B21" t="n">
-        <v>482.0368302834267</v>
+        <v>508.9558718301445</v>
       </c>
       <c r="C21" t="n">
-        <v>6.408591775894165</v>
+        <v>3.849789381027222</v>
       </c>
     </row>
     <row r="22">
@@ -2071,10 +2071,10 @@
         <v>105</v>
       </c>
       <c r="B22" t="n">
-        <v>486.0998866180538</v>
+        <v>501.4730702121226</v>
       </c>
       <c r="C22" t="n">
-        <v>6.408623008728028</v>
+        <v>0.3534913063049316</v>
       </c>
     </row>
     <row r="23">
@@ -2082,10 +2082,10 @@
         <v>110</v>
       </c>
       <c r="B23" t="n">
-        <v>493.6722914913747</v>
+        <v>504.3745908112466</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.06130311012268064</v>
+        <v>3.480626106262207</v>
       </c>
     </row>
     <row r="24">
@@ -2093,10 +2093,10 @@
         <v>115</v>
       </c>
       <c r="B24" t="n">
-        <v>494.9156882497018</v>
+        <v>509.3398208797974</v>
       </c>
       <c r="C24" t="n">
-        <v>6.525303153991699</v>
+        <v>6.289408445358276</v>
       </c>
     </row>
     <row r="25">
@@ -2104,10 +2104,10 @@
         <v>120</v>
       </c>
       <c r="B25" t="n">
-        <v>499.5845718571831</v>
+        <v>505.5338731704906</v>
       </c>
       <c r="C25" t="n">
-        <v>1.303054122924805</v>
+        <v>7.343346357345581</v>
       </c>
     </row>
     <row r="26">
@@ -2115,10 +2115,10 @@
         <v>125</v>
       </c>
       <c r="B26" t="n">
-        <v>499.1712140427699</v>
+        <v>509.5629430304032</v>
       </c>
       <c r="C26" t="n">
-        <v>5.548881797790528</v>
+        <v>7.352160453796387</v>
       </c>
     </row>
     <row r="27">
@@ -2126,10 +2126,10 @@
         <v>130</v>
       </c>
       <c r="B27" t="n">
-        <v>507.2374262256345</v>
+        <v>507.7597459507622</v>
       </c>
       <c r="C27" t="n">
-        <v>6.457950859069824</v>
+        <v>7.311591625213623</v>
       </c>
     </row>
     <row r="28">
@@ -2137,10 +2137,10 @@
         <v>135</v>
       </c>
       <c r="B28" t="n">
-        <v>502.1311259816295</v>
+        <v>509.8504680961605</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2338984298706055</v>
+        <v>2.692108869552612</v>
       </c>
     </row>
     <row r="29">
@@ -2148,10 +2148,10 @@
         <v>140</v>
       </c>
       <c r="B29" t="n">
-        <v>504.3217315849741</v>
+        <v>517.8483409875064</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6569140243530274</v>
+        <v>7.390482664108276</v>
       </c>
     </row>
     <row r="30">
@@ -2159,10 +2159,10 @@
         <v>145</v>
       </c>
       <c r="B30" t="n">
-        <v>509.3559598864389</v>
+        <v>511.489111188405</v>
       </c>
       <c r="C30" t="n">
-        <v>6.483487157821656</v>
+        <v>1.306013345718384</v>
       </c>
     </row>
     <row r="31">
@@ -2170,10 +2170,10 @@
         <v>150</v>
       </c>
       <c r="B31" t="n">
-        <v>514.4720414836037</v>
+        <v>512.8808838672766</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5629961776733399</v>
+        <v>7.291417121887207</v>
       </c>
     </row>
     <row r="32">
@@ -2181,10 +2181,10 @@
         <v>155</v>
       </c>
       <c r="B32" t="n">
-        <v>514.2787460574494</v>
+        <v>512.8143537567561</v>
       </c>
       <c r="C32" t="n">
-        <v>6.473034648895264</v>
+        <v>3.484730958938599</v>
       </c>
     </row>
     <row r="33">
@@ -2192,10 +2192,10 @@
         <v>160</v>
       </c>
       <c r="B33" t="n">
-        <v>517.5615596904254</v>
+        <v>512.6153580916528</v>
       </c>
       <c r="C33" t="n">
-        <v>3.899177103042603</v>
+        <v>3.0498046875</v>
       </c>
     </row>
     <row r="34">
@@ -2203,10 +2203,10 @@
         <v>165</v>
       </c>
       <c r="B34" t="n">
-        <v>517.1602452972425</v>
+        <v>512.8313476925484</v>
       </c>
       <c r="C34" t="n">
-        <v>6.469944505691529</v>
+        <v>7.290934801101685</v>
       </c>
     </row>
     <row r="35">
@@ -2214,10 +2214,10 @@
         <v>170</v>
       </c>
       <c r="B35" t="n">
-        <v>512.2521141864645</v>
+        <v>518.5143212698225</v>
       </c>
       <c r="C35" t="n">
-        <v>6.466724901199341</v>
+        <v>7.316915988922119</v>
       </c>
     </row>
     <row r="36">
@@ -2225,10 +2225,10 @@
         <v>175</v>
       </c>
       <c r="B36" t="n">
-        <v>516.6949336713415</v>
+        <v>516.5978781074323</v>
       </c>
       <c r="C36" t="n">
-        <v>6.466759233474732</v>
+        <v>0.9666030406951904</v>
       </c>
     </row>
     <row r="37">
@@ -2236,10 +2236,10 @@
         <v>180</v>
       </c>
       <c r="B37" t="n">
-        <v>512.3804529732455</v>
+        <v>515.2447044218516</v>
       </c>
       <c r="C37" t="n">
-        <v>6.512376575469971</v>
+        <v>7.237424850463867</v>
       </c>
     </row>
     <row r="38">
@@ -2247,10 +2247,10 @@
         <v>185</v>
       </c>
       <c r="B38" t="n">
-        <v>516.2027205992359</v>
+        <v>521.0043054380292</v>
       </c>
       <c r="C38" t="n">
-        <v>6.502744226455689</v>
+        <v>1.204717397689819</v>
       </c>
     </row>
     <row r="39">
@@ -2258,10 +2258,10 @@
         <v>190</v>
       </c>
       <c r="B39" t="n">
-        <v>518.1154953933759</v>
+        <v>511.348072313826</v>
       </c>
       <c r="C39" t="n">
-        <v>4.013705520629883</v>
+        <v>3.45343279838562</v>
       </c>
     </row>
     <row r="40">
@@ -2269,10 +2269,10 @@
         <v>195</v>
       </c>
       <c r="B40" t="n">
-        <v>519.4475176313412</v>
+        <v>516.0876879941565</v>
       </c>
       <c r="C40" t="n">
-        <v>6.470872192382813</v>
+        <v>7.348695039749146</v>
       </c>
     </row>
     <row r="41">
@@ -2280,10 +2280,10 @@
         <v>200</v>
       </c>
       <c r="B41" t="n">
-        <v>518.196603784348</v>
+        <v>519.0069800113512</v>
       </c>
       <c r="C41" t="n">
-        <v>6.486515312194824</v>
+        <v>7.292214393615723</v>
       </c>
     </row>
     <row r="42">
@@ -2291,10 +2291,10 @@
         <v>205</v>
       </c>
       <c r="B42" t="n">
-        <v>516.9147463060597</v>
+        <v>515.9531485889006</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.02930590629577634</v>
+        <v>7.279038667678833</v>
       </c>
     </row>
     <row r="43">
@@ -2302,10 +2302,10 @@
         <v>210</v>
       </c>
       <c r="B43" t="n">
-        <v>520.9620940652222</v>
+        <v>517.775983687312</v>
       </c>
       <c r="C43" t="n">
-        <v>6.498347549438477</v>
+        <v>4.193382263183594</v>
       </c>
     </row>
     <row r="44">
@@ -2313,10 +2313,10 @@
         <v>215</v>
       </c>
       <c r="B44" t="n">
-        <v>518.463219168588</v>
+        <v>520.6982651836138</v>
       </c>
       <c r="C44" t="n">
-        <v>6.509928016662598</v>
+        <v>7.27904486656189</v>
       </c>
     </row>
     <row r="45">
@@ -2324,10 +2324,10 @@
         <v>220</v>
       </c>
       <c r="B45" t="n">
-        <v>518.525070138125</v>
+        <v>518.5908800809716</v>
       </c>
       <c r="C45" t="n">
-        <v>4.998720197677613</v>
+        <v>7.27305793762207</v>
       </c>
     </row>
     <row r="46">
@@ -2335,10 +2335,10 @@
         <v>225</v>
       </c>
       <c r="B46" t="n">
-        <v>522.1145087790185</v>
+        <v>519.2645149563748</v>
       </c>
       <c r="C46" t="n">
-        <v>1.450990228652954</v>
+        <v>0.1068594455718994</v>
       </c>
     </row>
     <row r="47">
@@ -2346,10 +2346,10 @@
         <v>230</v>
       </c>
       <c r="B47" t="n">
-        <v>519.3959056711993</v>
+        <v>519.0444134411367</v>
       </c>
       <c r="C47" t="n">
-        <v>6.507135419845581</v>
+        <v>7.290702819824219</v>
       </c>
     </row>
     <row r="48">
@@ -2357,10 +2357,10 @@
         <v>235</v>
       </c>
       <c r="B48" t="n">
-        <v>518.47512806843</v>
+        <v>522.3076847591688</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.04328939437866208</v>
+        <v>0.4089503288269043</v>
       </c>
     </row>
     <row r="49">
@@ -2368,10 +2368,10 @@
         <v>240</v>
       </c>
       <c r="B49" t="n">
-        <v>520.3157534797764</v>
+        <v>518.9044182119853</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5416565227508545</v>
+        <v>7.381958484649658</v>
       </c>
     </row>
     <row r="50">
@@ -2379,10 +2379,10 @@
         <v>245</v>
       </c>
       <c r="B50" t="n">
-        <v>520.4599547327537</v>
+        <v>519.8664074945557</v>
       </c>
       <c r="C50" t="n">
-        <v>6.536122589111328</v>
+        <v>6.320265054702759</v>
       </c>
     </row>
     <row r="51">
@@ -2390,10 +2390,10 @@
         <v>250</v>
       </c>
       <c r="B51" t="n">
-        <v>521.7686402621027</v>
+        <v>519.117129340155</v>
       </c>
       <c r="C51" t="n">
-        <v>1.536999254226685</v>
+        <v>7.368202686309814</v>
       </c>
     </row>
     <row r="52">
@@ -2401,10 +2401,10 @@
         <v>255</v>
       </c>
       <c r="B52" t="n">
-        <v>521.5650834901199</v>
+        <v>519.8671721103134</v>
       </c>
       <c r="C52" t="n">
-        <v>6.483092336654663</v>
+        <v>1.584108352661133</v>
       </c>
     </row>
     <row r="53">
@@ -2412,10 +2412,10 @@
         <v>260</v>
       </c>
       <c r="B53" t="n">
-        <v>523.0979878424525</v>
+        <v>520.7038937610032</v>
       </c>
       <c r="C53" t="n">
-        <v>6.487446575164795</v>
+        <v>7.289047002792358</v>
       </c>
     </row>
     <row r="54">
@@ -2423,10 +2423,10 @@
         <v>265</v>
       </c>
       <c r="B54" t="n">
-        <v>523.794696050758</v>
+        <v>518.7193666004777</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8023996639251709</v>
+        <v>4.560949563980103</v>
       </c>
     </row>
     <row r="55">
@@ -2434,10 +2434,10 @@
         <v>270</v>
       </c>
       <c r="B55" t="n">
-        <v>526.44355417806</v>
+        <v>522.1535689739967</v>
       </c>
       <c r="C55" t="n">
-        <v>0.866193323135376</v>
+        <v>4.44178318977356</v>
       </c>
     </row>
     <row r="56">
@@ -2445,10 +2445,10 @@
         <v>275</v>
       </c>
       <c r="B56" t="n">
-        <v>527.760751150076</v>
+        <v>521.6795816408306</v>
       </c>
       <c r="C56" t="n">
-        <v>6.476825981140137</v>
+        <v>0.5092799663543701</v>
       </c>
     </row>
     <row r="57">
@@ -2456,10 +2456,10 @@
         <v>280</v>
       </c>
       <c r="B57" t="n">
-        <v>524.9060357896005</v>
+        <v>520.289560586744</v>
       </c>
       <c r="C57" t="n">
-        <v>6.473965196609497</v>
+        <v>7.270416736602783</v>
       </c>
     </row>
     <row r="58">
@@ -2467,10 +2467,10 @@
         <v>285</v>
       </c>
       <c r="B58" t="n">
-        <v>527.5886592873253</v>
+        <v>520.7692227940071</v>
       </c>
       <c r="C58" t="n">
-        <v>6.471806554794312</v>
+        <v>5.826378107070923</v>
       </c>
     </row>
     <row r="59">
@@ -2478,10 +2478,10 @@
         <v>290</v>
       </c>
       <c r="B59" t="n">
-        <v>529.037934858416</v>
+        <v>522.5178335329125</v>
       </c>
       <c r="C59" t="n">
-        <v>6.482026605606079</v>
+        <v>7.278672933578491</v>
       </c>
     </row>
     <row r="60">
@@ -2489,10 +2489,10 @@
         <v>295</v>
       </c>
       <c r="B60" t="n">
-        <v>529.1874378328106</v>
+        <v>523.330917727574</v>
       </c>
       <c r="C60" t="n">
-        <v>6.462589292526245</v>
+        <v>1.320595502853394</v>
       </c>
     </row>
     <row r="61">
@@ -2500,10 +2500,10 @@
         <v>300</v>
       </c>
       <c r="B61" t="n">
-        <v>529.2912333456891</v>
+        <v>522.0764633084839</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.03865882873535154</v>
+        <v>7.273407459259033</v>
       </c>
     </row>
   </sheetData>
@@ -2544,662 +2544,662 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>25.74328540457429</v>
+        <v>78.51459344734128</v>
       </c>
       <c r="C2" t="n">
-        <v>3.003004341125489</v>
+        <v>0.2113726139068604</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>43.22473731539534</v>
+        <v>187.1135471778724</v>
       </c>
       <c r="C3" t="n">
-        <v>6.110687999725342</v>
+        <v>0.2395570278167725</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>62.89603462192945</v>
+        <v>233.6444169978883</v>
       </c>
       <c r="C4" t="n">
-        <v>1.850420026779175</v>
+        <v>2.781280040740967</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="n">
-        <v>125.5053691077701</v>
+        <v>246.3898692795645</v>
       </c>
       <c r="C5" t="n">
-        <v>6.241249351501465</v>
+        <v>4.296931505203247</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>160.0199410422044</v>
+        <v>243.7824411344828</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3351574230194092</v>
+        <v>1.89027738571167</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" t="n">
-        <v>171.5769441126012</v>
+        <v>256.8077086966858</v>
       </c>
       <c r="C7" t="n">
-        <v>4.558900146484375</v>
+        <v>6.325096130371094</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" t="n">
-        <v>194.3485916186455</v>
+        <v>262.7589937415864</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.004189939498901341</v>
+        <v>6.808494091033936</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" t="n">
-        <v>218.6809688481164</v>
+        <v>258.1286176687815</v>
       </c>
       <c r="C9" t="n">
-        <v>6.204651861190796</v>
+        <v>6.68056058883667</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n">
-        <v>218.394457568833</v>
+        <v>266.009714877245</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4555945682525635</v>
+        <v>6.73507022857666</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" t="n">
-        <v>229.943270175952</v>
+        <v>274.7176707216529</v>
       </c>
       <c r="C11" t="n">
-        <v>6.221047191619873</v>
+        <v>6.810068130493164</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" t="n">
-        <v>227.6132725433095</v>
+        <v>281.9160173181987</v>
       </c>
       <c r="C12" t="n">
-        <v>6.34789779663086</v>
+        <v>6.857539415359497</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" t="n">
-        <v>238.7237790240881</v>
+        <v>267.9745214180427</v>
       </c>
       <c r="C13" t="n">
-        <v>4.134504585266114</v>
+        <v>6.913822174072266</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" t="n">
-        <v>238.7679919993844</v>
+        <v>276.7985688021375</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0003938961029053001</v>
+        <v>0.1467971801757812</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" t="n">
-        <v>248.1367187289202</v>
+        <v>282.9322641294955</v>
       </c>
       <c r="C15" t="n">
-        <v>6.370795755386353</v>
+        <v>6.963415861129761</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" t="n">
-        <v>252.3041785850643</v>
+        <v>273.6740905009819</v>
       </c>
       <c r="C16" t="n">
-        <v>6.361061840057373</v>
+        <v>0.8648145198822021</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" t="n">
-        <v>250.034533536508</v>
+        <v>272.7276004640063</v>
       </c>
       <c r="C17" t="n">
-        <v>6.359057931900025</v>
+        <v>0.4746229648590088</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" t="n">
-        <v>248.4595087012982</v>
+        <v>279.5712504135149</v>
       </c>
       <c r="C18" t="n">
-        <v>6.330387144088745</v>
+        <v>6.894891023635864</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" t="n">
-        <v>257.857056527877</v>
+        <v>275.9197859850821</v>
       </c>
       <c r="C19" t="n">
-        <v>4.013827590942383</v>
+        <v>4.637108564376831</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B20" t="n">
-        <v>256.9128383897668</v>
+        <v>273.5103849492788</v>
       </c>
       <c r="C20" t="n">
-        <v>2.370458631515503</v>
+        <v>4.617084741592407</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B21" t="n">
-        <v>258.2186576910137</v>
+        <v>281.710646741629</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1747596549987793</v>
+        <v>0.3366765975952148</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B22" t="n">
-        <v>256.9548239520756</v>
+        <v>277.2705680608213</v>
       </c>
       <c r="C22" t="n">
-        <v>1.862437992095947</v>
+        <v>6.87746787071228</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B23" t="n">
-        <v>262.6776262310722</v>
+        <v>280.303040504902</v>
       </c>
       <c r="C23" t="n">
-        <v>4.259464292526245</v>
+        <v>6.754850387573242</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B24" t="n">
-        <v>264.7492390393919</v>
+        <v>279.3761301113394</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.03026196479797361</v>
+        <v>0.1114130020141602</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B25" t="n">
-        <v>260.6925966476226</v>
+        <v>285.414375749578</v>
       </c>
       <c r="C25" t="n">
-        <v>6.361600427627564</v>
+        <v>6.730356454849243</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B26" t="n">
-        <v>262.6573439931885</v>
+        <v>277.2827994440472</v>
       </c>
       <c r="C26" t="n">
-        <v>6.345972328186035</v>
+        <v>5.422556638717651</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B27" t="n">
-        <v>265.7116028638985</v>
+        <v>282.1033919582597</v>
       </c>
       <c r="C27" t="n">
-        <v>6.324358968734741</v>
+        <v>6.686796188354492</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B28" t="n">
-        <v>268.258990506365</v>
+        <v>283.6635171928967</v>
       </c>
       <c r="C28" t="n">
-        <v>6.294076471328736</v>
+        <v>6.658837556838989</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B29" t="n">
-        <v>266.0338523324183</v>
+        <v>285.7646500090055</v>
       </c>
       <c r="C29" t="n">
-        <v>6.306337623596192</v>
+        <v>6.582660913467407</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B30" t="n">
-        <v>265.5502354288926</v>
+        <v>283.6497464891193</v>
       </c>
       <c r="C30" t="n">
-        <v>3.714638738632202</v>
+        <v>2.216659069061279</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B31" t="n">
-        <v>271.7252712062598</v>
+        <v>284.5611959883756</v>
       </c>
       <c r="C31" t="n">
-        <v>6.339605121612549</v>
+        <v>6.537252902984619</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B32" t="n">
-        <v>272.9903281855559</v>
+        <v>283.8304479918071</v>
       </c>
       <c r="C32" t="n">
-        <v>6.340632944107056</v>
+        <v>6.536343812942505</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B33" t="n">
-        <v>270.6138755384813</v>
+        <v>287.1142520056123</v>
       </c>
       <c r="C33" t="n">
-        <v>0.001020221710205105</v>
+        <v>0.3278970718383789</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B34" t="n">
-        <v>270.8597388359815</v>
+        <v>283.9406660124769</v>
       </c>
       <c r="C34" t="n">
-        <v>6.378389387130738</v>
+        <v>6.538968324661255</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B35" t="n">
-        <v>270.2786953931881</v>
+        <v>281.74941694438</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2619808006286621</v>
+        <v>3.105197191238403</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B36" t="n">
-        <v>273.8847251178443</v>
+        <v>285.7944563819655</v>
       </c>
       <c r="C36" t="n">
-        <v>0.6632566738128662</v>
+        <v>1.302848339080811</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B37" t="n">
-        <v>272.3540821231753</v>
+        <v>283.7676903193288</v>
       </c>
       <c r="C37" t="n">
-        <v>0.07653358459472659</v>
+        <v>6.55955982208252</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B38" t="n">
-        <v>275.8934953189948</v>
+        <v>282.4114333601116</v>
       </c>
       <c r="C38" t="n">
-        <v>6.3883242893219</v>
+        <v>6.588058710098267</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B39" t="n">
-        <v>272.3303771534953</v>
+        <v>284.0396665131048</v>
       </c>
       <c r="C39" t="n">
-        <v>6.358725099563599</v>
+        <v>6.172041416168213</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B40" t="n">
-        <v>275.0449519193602</v>
+        <v>284.7162946466418</v>
       </c>
       <c r="C40" t="n">
-        <v>3.197322635650635</v>
+        <v>6.530916213989258</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B41" t="n">
-        <v>276.5769624960026</v>
+        <v>281.8100867909943</v>
       </c>
       <c r="C41" t="n">
-        <v>6.323046712875366</v>
+        <v>0.1030688285827637</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B42" t="n">
-        <v>278.2704323050772</v>
+        <v>279.3989606912127</v>
       </c>
       <c r="C42" t="n">
-        <v>6.332464723587036</v>
+        <v>6.552750825881958</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B43" t="n">
-        <v>279.7334063708768</v>
+        <v>283.5183707501006</v>
       </c>
       <c r="C43" t="n">
-        <v>3.906197576522827</v>
+        <v>6.552755117416382</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B44" t="n">
-        <v>279.7858365041462</v>
+        <v>282.6452403923347</v>
       </c>
       <c r="C44" t="n">
-        <v>2.337475328445435</v>
+        <v>6.531595468521118</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B45" t="n">
-        <v>279.4148510607438</v>
+        <v>282.3882163773595</v>
       </c>
       <c r="C45" t="n">
-        <v>6.278929977416992</v>
+        <v>6.56672191619873</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B46" t="n">
-        <v>277.9897801808467</v>
+        <v>281.3562949642032</v>
       </c>
       <c r="C46" t="n">
-        <v>6.268415002822876</v>
+        <v>0.1121540069580078</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B47" t="n">
-        <v>278.185014715219</v>
+        <v>281.9645674294744</v>
       </c>
       <c r="C47" t="n">
-        <v>6.248581438064575</v>
+        <v>6.548119783401489</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B48" t="n">
-        <v>279.5754873313173</v>
+        <v>284.2332321397884</v>
       </c>
       <c r="C48" t="n">
-        <v>3.499768047332764</v>
+        <v>4.773109197616577</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B49" t="n">
-        <v>278.1818382258025</v>
+        <v>284.46572493551</v>
       </c>
       <c r="C49" t="n">
-        <v>0.6266248512268067</v>
+        <v>2.708357572555542</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B50" t="n">
-        <v>278.7517843621388</v>
+        <v>284.6181068524089</v>
       </c>
       <c r="C50" t="n">
-        <v>6.341285018920899</v>
+        <v>6.54404091835022</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B51" t="n">
-        <v>279.5772326678521</v>
+        <v>282.4972252248689</v>
       </c>
       <c r="C51" t="n">
-        <v>6.335036067962647</v>
+        <v>6.546800851821899</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B52" t="n">
-        <v>278.1944654339151</v>
+        <v>285.7148140404996</v>
       </c>
       <c r="C52" t="n">
-        <v>6.381897239685059</v>
+        <v>0.09680891036987305</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B53" t="n">
-        <v>280.1165973475699</v>
+        <v>283.3803620569423</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.01090952873229978</v>
+        <v>0.5263102054595947</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B54" t="n">
-        <v>280.4308489430566</v>
+        <v>284.0582598508623</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.01335951805114743</v>
+        <v>1.873109817504883</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B55" t="n">
-        <v>280.3491898279724</v>
+        <v>281.2888073888585</v>
       </c>
       <c r="C55" t="n">
-        <v>6.349401502609253</v>
+        <v>6.549837350845337</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B56" t="n">
-        <v>281.0537657525518</v>
+        <v>283.1765991010039</v>
       </c>
       <c r="C56" t="n">
-        <v>3.740160493850708</v>
+        <v>1.470897436141968</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B57" t="n">
-        <v>277.9913604692492</v>
+        <v>285.3798735824079</v>
       </c>
       <c r="C57" t="n">
-        <v>5.833623676300049</v>
+        <v>6.625900506973267</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B58" t="n">
-        <v>278.6502633390713</v>
+        <v>284.833714564439</v>
       </c>
       <c r="C58" t="n">
-        <v>5.644733219146729</v>
+        <v>6.647976398468018</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B59" t="n">
-        <v>280.9957195317523</v>
+        <v>284.0732777734407</v>
       </c>
       <c r="C59" t="n">
-        <v>2.596492795944214</v>
+        <v>6.645989418029785</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B60" t="n">
-        <v>280.4525224266612</v>
+        <v>283.742827323858</v>
       </c>
       <c r="C60" t="n">
-        <v>6.304515628814698</v>
+        <v>1.322788953781128</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B61" t="n">
-        <v>279.9088267270643</v>
+        <v>283.6877168798982</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.01490518569946286</v>
+        <v>6.691777229309082</v>
       </c>
     </row>
   </sheetData>
@@ -3243,10 +3243,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1.9985347999311</v>
       </c>
       <c r="C2" t="n">
-        <v>6.172073774337768</v>
+        <v>0.3426206111907959</v>
       </c>
     </row>
     <row r="3">
@@ -3254,10 +3254,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>44.88948397887643</v>
+        <v>43.16131610405484</v>
       </c>
       <c r="C3" t="n">
-        <v>1.32024806022644</v>
+        <v>6.272103071212769</v>
       </c>
     </row>
     <row r="4">
@@ -3265,10 +3265,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>57.28117680385122</v>
+        <v>56.02544628964581</v>
       </c>
       <c r="C4" t="n">
-        <v>6.141150169372558</v>
+        <v>0.1102733612060547</v>
       </c>
     </row>
     <row r="5">
@@ -3276,10 +3276,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>53.98212633058905</v>
+        <v>42.02954139395071</v>
       </c>
       <c r="C5" t="n">
-        <v>2.484142951965332</v>
+        <v>0.6072385311126709</v>
       </c>
     </row>
     <row r="6">
@@ -3287,10 +3287,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>43.16918489143331</v>
+        <v>47.45779896342704</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.01638133049011231</v>
+        <v>6.351984024047852</v>
       </c>
     </row>
     <row r="7">
@@ -3298,10 +3298,10 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>50.31567348866205</v>
+        <v>56.8426921009025</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9199284839630126</v>
+        <v>6.359467506408691</v>
       </c>
     </row>
     <row r="8">
@@ -3309,10 +3309,10 @@
         <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>53.76224492853358</v>
+        <v>48.73115972378358</v>
       </c>
       <c r="C8" t="n">
-        <v>6.1447376537323</v>
+        <v>0.8120162487030029</v>
       </c>
     </row>
     <row r="9">
@@ -3320,10 +3320,10 @@
         <v>40</v>
       </c>
       <c r="B9" t="n">
-        <v>55.96846796567591</v>
+        <v>52.18107453462864</v>
       </c>
       <c r="C9" t="n">
-        <v>6.275841646194458</v>
+        <v>0.08500003814697266</v>
       </c>
     </row>
     <row r="10">
@@ -3331,10 +3331,10 @@
         <v>45</v>
       </c>
       <c r="B10" t="n">
-        <v>59.2627411865791</v>
+        <v>54.0595572030338</v>
       </c>
       <c r="C10" t="n">
-        <v>5.434757642745971</v>
+        <v>4.833484888076782</v>
       </c>
     </row>
     <row r="11">
@@ -3342,10 +3342,10 @@
         <v>50</v>
       </c>
       <c r="B11" t="n">
-        <v>53.7397227221703</v>
+        <v>58.36375006024353</v>
       </c>
       <c r="C11" t="n">
-        <v>6.143443756103515</v>
+        <v>0.9005553722381592</v>
       </c>
     </row>
     <row r="12">
@@ -3353,10 +3353,10 @@
         <v>55</v>
       </c>
       <c r="B12" t="n">
-        <v>55.91277153990703</v>
+        <v>53.06820873886434</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.01516611099243165</v>
+        <v>2.91588568687439</v>
       </c>
     </row>
     <row r="13">
@@ -3364,10 +3364,10 @@
         <v>60</v>
       </c>
       <c r="B13" t="n">
-        <v>58.31469394592741</v>
+        <v>55.73725692902141</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2943741607666016</v>
+        <v>6.310567855834961</v>
       </c>
     </row>
     <row r="14">
@@ -3375,10 +3375,10 @@
         <v>65</v>
       </c>
       <c r="B14" t="n">
-        <v>55.38294531456132</v>
+        <v>57.62225019745338</v>
       </c>
       <c r="C14" t="n">
-        <v>6.149578981399536</v>
+        <v>5.732346057891846</v>
       </c>
     </row>
     <row r="15">
@@ -3386,10 +3386,10 @@
         <v>70</v>
       </c>
       <c r="B15" t="n">
-        <v>58.17536014920172</v>
+        <v>59.46740079614849</v>
       </c>
       <c r="C15" t="n">
-        <v>6.136328868865967</v>
+        <v>6.306676626205444</v>
       </c>
     </row>
     <row r="16">
@@ -3397,10 +3397,10 @@
         <v>75</v>
       </c>
       <c r="B16" t="n">
-        <v>59.49658469875077</v>
+        <v>55.50177351884336</v>
       </c>
       <c r="C16" t="n">
-        <v>1.58214467048645</v>
+        <v>1.365019798278809</v>
       </c>
     </row>
     <row r="17">
@@ -3408,10 +3408,10 @@
         <v>80</v>
       </c>
       <c r="B17" t="n">
-        <v>59.63293245110964</v>
+        <v>56.86687233895104</v>
       </c>
       <c r="C17" t="n">
-        <v>6.140480451583862</v>
+        <v>6.373803853988647</v>
       </c>
     </row>
     <row r="18">
@@ -3419,10 +3419,10 @@
         <v>85</v>
       </c>
       <c r="B18" t="n">
-        <v>59.09443396856734</v>
+        <v>58.38161396567618</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1703829097747803</v>
+        <v>0.1084280014038086</v>
       </c>
     </row>
     <row r="19">
@@ -3430,10 +3430,10 @@
         <v>90</v>
       </c>
       <c r="B19" t="n">
-        <v>59.61158107230171</v>
+        <v>59.88573830895292</v>
       </c>
       <c r="C19" t="n">
-        <v>6.145999126434326</v>
+        <v>0.7097785472869873</v>
       </c>
     </row>
     <row r="20">
@@ -3441,10 +3441,10 @@
         <v>95</v>
       </c>
       <c r="B20" t="n">
-        <v>57.23026490788745</v>
+        <v>56.72966480348155</v>
       </c>
       <c r="C20" t="n">
-        <v>4.870309286117553</v>
+        <v>0.2688884735107422</v>
       </c>
     </row>
     <row r="21">
@@ -3452,10 +3452,10 @@
         <v>100</v>
       </c>
       <c r="B21" t="n">
-        <v>57.89888745380819</v>
+        <v>60.94351767332365</v>
       </c>
       <c r="C21" t="n">
-        <v>3.937944345474243</v>
+        <v>5.364445924758911</v>
       </c>
     </row>
     <row r="22">
@@ -3463,10 +3463,10 @@
         <v>105</v>
       </c>
       <c r="B22" t="n">
-        <v>59.20563322749101</v>
+        <v>58.04309936148221</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.00731284141540528</v>
+        <v>0.9050698280334473</v>
       </c>
     </row>
     <row r="23">
@@ -3474,10 +3474,10 @@
         <v>110</v>
       </c>
       <c r="B23" t="n">
-        <v>56.52144710635036</v>
+        <v>57.49252116889878</v>
       </c>
       <c r="C23" t="n">
-        <v>5.628407888412475</v>
+        <v>6.397112131118774</v>
       </c>
     </row>
     <row r="24">
@@ -3485,10 +3485,10 @@
         <v>115</v>
       </c>
       <c r="B24" t="n">
-        <v>58.07327496634351</v>
+        <v>59.07364359481222</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.01535064697265626</v>
+        <v>6.320026636123657</v>
       </c>
     </row>
     <row r="25">
@@ -3496,10 +3496,10 @@
         <v>120</v>
       </c>
       <c r="B25" t="n">
-        <v>59.04351323660872</v>
+        <v>57.47182301645373</v>
       </c>
       <c r="C25" t="n">
-        <v>1.122116737365723</v>
+        <v>6.264577865600586</v>
       </c>
     </row>
     <row r="26">
@@ -3507,10 +3507,10 @@
         <v>125</v>
       </c>
       <c r="B26" t="n">
-        <v>60.07803315550371</v>
+        <v>58.54985153625802</v>
       </c>
       <c r="C26" t="n">
-        <v>6.145150594711303</v>
+        <v>6.280083417892456</v>
       </c>
     </row>
     <row r="27">
@@ -3518,10 +3518,10 @@
         <v>130</v>
       </c>
       <c r="B27" t="n">
-        <v>57.75856399542889</v>
+        <v>58.83486756793718</v>
       </c>
       <c r="C27" t="n">
-        <v>6.141057186126709</v>
+        <v>6.323812484741211</v>
       </c>
     </row>
     <row r="28">
@@ -3529,10 +3529,10 @@
         <v>135</v>
       </c>
       <c r="B28" t="n">
-        <v>58.54878901566735</v>
+        <v>57.04633467085111</v>
       </c>
       <c r="C28" t="n">
-        <v>6.140460424423217</v>
+        <v>2.126689672470093</v>
       </c>
     </row>
     <row r="29">
@@ -3540,10 +3540,10 @@
         <v>140</v>
       </c>
       <c r="B29" t="n">
-        <v>59.40306257109033</v>
+        <v>57.43935870089593</v>
       </c>
       <c r="C29" t="n">
-        <v>6.161033563613891</v>
+        <v>2.523786306381226</v>
       </c>
     </row>
     <row r="30">
@@ -3551,10 +3551,10 @@
         <v>145</v>
       </c>
       <c r="B30" t="n">
-        <v>58.96737064065707</v>
+        <v>58.5976656289705</v>
       </c>
       <c r="C30" t="n">
-        <v>6.159500532150268</v>
+        <v>6.316855430603027</v>
       </c>
     </row>
     <row r="31">
@@ -3562,10 +3562,10 @@
         <v>150</v>
       </c>
       <c r="B31" t="n">
-        <v>57.00180009544414</v>
+        <v>59.5939847052316</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2484688091278076</v>
+        <v>2.226172208786011</v>
       </c>
     </row>
     <row r="32">
@@ -3573,10 +3573,10 @@
         <v>155</v>
       </c>
       <c r="B32" t="n">
-        <v>57.84985869138032</v>
+        <v>57.67482049105728</v>
       </c>
       <c r="C32" t="n">
-        <v>6.155620746612549</v>
+        <v>6.384727716445923</v>
       </c>
     </row>
     <row r="33">
@@ -3584,10 +3584,10 @@
         <v>160</v>
       </c>
       <c r="B33" t="n">
-        <v>58.6648942399275</v>
+        <v>59.74312786607073</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.02004367828369141</v>
+        <v>0.4305977821350098</v>
       </c>
     </row>
     <row r="34">
@@ -3595,10 +3595,10 @@
         <v>165</v>
       </c>
       <c r="B34" t="n">
-        <v>59.19599174829554</v>
+        <v>59.87331297316899</v>
       </c>
       <c r="C34" t="n">
-        <v>1.310325555801392</v>
+        <v>1.450818061828613</v>
       </c>
     </row>
     <row r="35">
@@ -3606,10 +3606,10 @@
         <v>170</v>
       </c>
       <c r="B35" t="n">
-        <v>60.02484264580175</v>
+        <v>59.16761633625321</v>
       </c>
       <c r="C35" t="n">
-        <v>6.131970815658569</v>
+        <v>6.315077066421509</v>
       </c>
     </row>
     <row r="36">
@@ -3617,10 +3617,10 @@
         <v>175</v>
       </c>
       <c r="B36" t="n">
-        <v>58.30850607910762</v>
+        <v>59.76222995047522</v>
       </c>
       <c r="C36" t="n">
-        <v>3.903709106445313</v>
+        <v>6.317747116088867</v>
       </c>
     </row>
     <row r="37">
@@ -3628,10 +3628,10 @@
         <v>180</v>
       </c>
       <c r="B37" t="n">
-        <v>58.56947913463529</v>
+        <v>58.1030834588309</v>
       </c>
       <c r="C37" t="n">
-        <v>6.135711841583252</v>
+        <v>0.8999044895172119</v>
       </c>
     </row>
     <row r="38">
@@ -3639,10 +3639,10 @@
         <v>185</v>
       </c>
       <c r="B38" t="n">
-        <v>59.16617429368554</v>
+        <v>58.70687932785042</v>
       </c>
       <c r="C38" t="n">
-        <v>6.153335027694702</v>
+        <v>5.646021366119385</v>
       </c>
     </row>
     <row r="39">
@@ -3650,10 +3650,10 @@
         <v>190</v>
       </c>
       <c r="B39" t="n">
-        <v>59.61480589635706</v>
+        <v>59.5870474504349</v>
       </c>
       <c r="C39" t="n">
-        <v>6.147911005020141</v>
+        <v>0.5472710132598877</v>
       </c>
     </row>
     <row r="40">
@@ -3661,10 +3661,10 @@
         <v>195</v>
       </c>
       <c r="B40" t="n">
-        <v>58.08629726001113</v>
+        <v>59.81256420500339</v>
       </c>
       <c r="C40" t="n">
-        <v>6.144461088180542</v>
+        <v>6.226070165634155</v>
       </c>
     </row>
     <row r="41">
@@ -3672,10 +3672,10 @@
         <v>200</v>
       </c>
       <c r="B41" t="n">
-        <v>58.52947445644206</v>
+        <v>60.18438692844423</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.01970369338989258</v>
+        <v>6.31636118888855</v>
       </c>
     </row>
     <row r="42">
@@ -3683,10 +3683,10 @@
         <v>205</v>
       </c>
       <c r="B42" t="n">
-        <v>59.11465720498265</v>
+        <v>58.71321353586238</v>
       </c>
       <c r="C42" t="n">
-        <v>6.146381311416626</v>
+        <v>0.4209911823272705</v>
       </c>
     </row>
     <row r="43">
@@ -3694,10 +3694,10 @@
         <v>210</v>
       </c>
       <c r="B43" t="n">
-        <v>59.48987939672438</v>
+        <v>59.46866577829521</v>
       </c>
       <c r="C43" t="n">
-        <v>6.127382450103759</v>
+        <v>6.30086350440979</v>
       </c>
     </row>
     <row r="44">
@@ -3705,10 +3705,10 @@
         <v>215</v>
       </c>
       <c r="B44" t="n">
-        <v>58.10039787551086</v>
+        <v>59.58532843899879</v>
       </c>
       <c r="C44" t="n">
-        <v>6.245006017684936</v>
+        <v>0.09842157363891602</v>
       </c>
     </row>
     <row r="45">
@@ -3716,10 +3716,10 @@
         <v>220</v>
       </c>
       <c r="B45" t="n">
-        <v>58.41224241856045</v>
+        <v>60.73085436998974</v>
       </c>
       <c r="C45" t="n">
-        <v>6.138379507064819</v>
+        <v>3.695991039276123</v>
       </c>
     </row>
     <row r="46">
@@ -3727,10 +3727,10 @@
         <v>225</v>
       </c>
       <c r="B46" t="n">
-        <v>58.4215225812306</v>
+        <v>60.48787055892959</v>
       </c>
       <c r="C46" t="n">
-        <v>6.134012155532837</v>
+        <v>4.462120771408081</v>
       </c>
     </row>
     <row r="47">
@@ -3738,10 +3738,10 @@
         <v>230</v>
       </c>
       <c r="B47" t="n">
-        <v>58.34180975629152</v>
+        <v>60.91399065347229</v>
       </c>
       <c r="C47" t="n">
-        <v>5.733195238113403</v>
+        <v>0.7653038501739502</v>
       </c>
     </row>
     <row r="48">
@@ -3749,10 +3749,10 @@
         <v>235</v>
       </c>
       <c r="B48" t="n">
-        <v>58.97670424343575</v>
+        <v>60.55226074711034</v>
       </c>
       <c r="C48" t="n">
-        <v>6.152760200500488</v>
+        <v>0.112001895904541</v>
       </c>
     </row>
     <row r="49">
@@ -3760,10 +3760,10 @@
         <v>240</v>
       </c>
       <c r="B49" t="n">
-        <v>59.50507144252812</v>
+        <v>59.29041273199108</v>
       </c>
       <c r="C49" t="n">
-        <v>4.939400844573974</v>
+        <v>3.285713672637939</v>
       </c>
     </row>
     <row r="50">
@@ -3771,10 +3771,10 @@
         <v>245</v>
       </c>
       <c r="B50" t="n">
-        <v>59.71303384162599</v>
+        <v>60.66031306138332</v>
       </c>
       <c r="C50" t="n">
-        <v>4.323289566040039</v>
+        <v>6.348220586776733</v>
       </c>
     </row>
     <row r="51">
@@ -3782,10 +3782,10 @@
         <v>250</v>
       </c>
       <c r="B51" t="n">
-        <v>58.51908565154051</v>
+        <v>59.44460338236131</v>
       </c>
       <c r="C51" t="n">
-        <v>6.140375547409057</v>
+        <v>6.265728235244751</v>
       </c>
     </row>
     <row r="52">
@@ -3793,10 +3793,10 @@
         <v>255</v>
       </c>
       <c r="B52" t="n">
-        <v>58.24886383530225</v>
+        <v>59.96645760649638</v>
       </c>
       <c r="C52" t="n">
-        <v>6.141177110671997</v>
+        <v>6.348076343536377</v>
       </c>
     </row>
     <row r="53">
@@ -3804,10 +3804,10 @@
         <v>260</v>
       </c>
       <c r="B53" t="n">
-        <v>58.59370177574723</v>
+        <v>60.01069951521862</v>
       </c>
       <c r="C53" t="n">
-        <v>6.149362258911133</v>
+        <v>5.052370548248291</v>
       </c>
     </row>
     <row r="54">
@@ -3815,10 +3815,10 @@
         <v>265</v>
       </c>
       <c r="B54" t="n">
-        <v>59.07664173538318</v>
+        <v>60.47998821952488</v>
       </c>
       <c r="C54" t="n">
-        <v>6.143316202163696</v>
+        <v>6.349448680877686</v>
       </c>
     </row>
     <row r="55">
@@ -3826,10 +3826,10 @@
         <v>270</v>
       </c>
       <c r="B55" t="n">
-        <v>57.98261000530835</v>
+        <v>60.43137268018082</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.03264886856079102</v>
+        <v>6.246814012527466</v>
       </c>
     </row>
     <row r="56">
@@ -3837,10 +3837,10 @@
         <v>275</v>
       </c>
       <c r="B56" t="n">
-        <v>58.28714159801916</v>
+        <v>60.81115710571989</v>
       </c>
       <c r="C56" t="n">
-        <v>6.138908319473266</v>
+        <v>0.4074981212615967</v>
       </c>
     </row>
     <row r="57">
@@ -3848,10 +3848,10 @@
         <v>280</v>
       </c>
       <c r="B57" t="n">
-        <v>58.84018661231237</v>
+        <v>61.08201364929918</v>
       </c>
       <c r="C57" t="n">
-        <v>6.145719938278198</v>
+        <v>4.681583881378174</v>
       </c>
     </row>
     <row r="58">
@@ -3859,10 +3859,10 @@
         <v>285</v>
       </c>
       <c r="B58" t="n">
-        <v>59.36734972516786</v>
+        <v>60.00967262958908</v>
       </c>
       <c r="C58" t="n">
-        <v>6.133969955444336</v>
+        <v>6.349828720092773</v>
       </c>
     </row>
     <row r="59">
@@ -3870,10 +3870,10 @@
         <v>290</v>
       </c>
       <c r="B59" t="n">
-        <v>58.34253348619545</v>
+        <v>60.41203983198399</v>
       </c>
       <c r="C59" t="n">
-        <v>6.143693380355835</v>
+        <v>2.086548089981079</v>
       </c>
     </row>
     <row r="60">
@@ -3881,10 +3881,10 @@
         <v>295</v>
       </c>
       <c r="B60" t="n">
-        <v>57.86984350021888</v>
+        <v>60.83787691707722</v>
       </c>
       <c r="C60" t="n">
-        <v>6.149062089920044</v>
+        <v>3.85533332824707</v>
       </c>
     </row>
     <row r="61">
@@ -3892,10 +3892,10 @@
         <v>300</v>
       </c>
       <c r="B61" t="n">
-        <v>58.3643116664015</v>
+        <v>61.07832873918904</v>
       </c>
       <c r="C61" t="n">
-        <v>6.171070985794067</v>
+        <v>6.381676197052002</v>
       </c>
     </row>
   </sheetData>
